--- a/db/dummydata/gc_local_charges.xlsx
+++ b/db/dummydata/gc_local_charges.xlsx
@@ -45,30 +45,30 @@
     <t>RATE_BASIS</t>
   </si>
   <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>CBM</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>SHIPMENT</t>
+  </si>
+  <si>
+    <t>BILL</t>
+  </si>
+  <si>
+    <t>CONTAINER</t>
+  </si>
+  <si>
     <t>MINIMUM</t>
   </si>
   <si>
-    <t>TON</t>
-  </si>
-  <si>
-    <t>CBM</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>ITEM</t>
-  </si>
-  <si>
-    <t>SHIPMENT</t>
-  </si>
-  <si>
-    <t>BILL</t>
-  </si>
-  <si>
-    <t>CONTAINER</t>
-  </si>
-  <si>
     <t>WM</t>
   </si>
   <si>
@@ -99,99 +99,99 @@
     <t>PER_CONTAINER</t>
   </si>
   <si>
+    <t>Customs Clearance</t>
+  </si>
+  <si>
+    <t>Terminal Handling Charge</t>
+  </si>
+  <si>
     <t>FCL_40</t>
   </si>
   <si>
-    <t>Terminal Handling Charge</t>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>CUST</t>
   </si>
   <si>
     <t>THC</t>
   </si>
   <si>
+    <t>LCL</t>
+  </si>
+  <si>
     <t>FCL</t>
   </si>
   <si>
     <t>SEK</t>
   </si>
   <si>
-    <t>Customs Clearance</t>
-  </si>
-  <si>
-    <t>Air</t>
+    <t>PER_SHIPMENT</t>
+  </si>
+  <si>
+    <t>Harbour Dues</t>
   </si>
   <si>
     <t>FCL_40_HQ</t>
   </si>
   <si>
-    <t>CUST</t>
-  </si>
-  <si>
-    <t>LCL</t>
-  </si>
-  <si>
-    <t>PER_SHIPMENT</t>
-  </si>
-  <si>
-    <t>Harbour Dues</t>
+    <t>HDF</t>
   </si>
   <si>
     <t>Export Fees</t>
   </si>
   <si>
-    <t>HDF</t>
-  </si>
-  <si>
     <t>EXP</t>
   </si>
   <si>
+    <t>Handling Fee</t>
+  </si>
+  <si>
+    <t>HAF</t>
+  </si>
+  <si>
     <t>Documentation</t>
   </si>
   <si>
+    <t>Scanning Fee</t>
+  </si>
+  <si>
+    <t>SCAN</t>
+  </si>
+  <si>
     <t>DOC</t>
   </si>
   <si>
     <t>PER_BILL</t>
   </si>
   <si>
-    <t>Handling Fee</t>
-  </si>
-  <si>
-    <t>HAF</t>
-  </si>
-  <si>
-    <t>Scanning Fee</t>
-  </si>
-  <si>
-    <t>SCAN</t>
-  </si>
-  <si>
     <t>ISPS</t>
   </si>
   <si>
+    <t>Import</t>
+  </si>
+  <si>
     <t>EUR</t>
   </si>
   <si>
+    <t>Terminal Charge</t>
+  </si>
+  <si>
+    <t>Swedish Fairways Due Charge</t>
+  </si>
+  <si>
+    <t>FDC</t>
+  </si>
+  <si>
+    <t>PER_KG_RANGE</t>
+  </si>
+  <si>
     <t>Stuffing Fee</t>
   </si>
   <si>
     <t>STF</t>
   </si>
   <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>Swedish Fairways Due Charge</t>
-  </si>
-  <si>
-    <t>FDC</t>
-  </si>
-  <si>
-    <t>Terminal Charge</t>
-  </si>
-  <si>
-    <t>PER_KG_RANGE</t>
-  </si>
-  <si>
     <t>HDL</t>
   </si>
   <si>
@@ -243,10 +243,10 @@
     <t>DTD</t>
   </si>
   <si>
+    <t>PER_KG</t>
+  </si>
+  <si>
     <t>TC</t>
-  </si>
-  <si>
-    <t>PER_KG</t>
   </si>
   <si>
     <t>Export Charges</t>
@@ -274,10 +274,10 @@
       <b/>
     </font>
     <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -323,63 +323,63 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="14" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -457,28 +457,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>17</v>
@@ -501,11 +501,11 @@
     <row r="2">
       <c r="A2" s="8">
         <f t="shared" ref="A2:A39" si="1">TODAY()</f>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B2" s="8">
         <f t="shared" ref="B2:B39" si="2">A2+365</f>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
@@ -514,16 +514,16 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -536,20 +536,20 @@
     <row r="3">
       <c r="A3" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B3" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>23</v>
@@ -558,7 +558,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -570,29 +570,29 @@
     <row r="4">
       <c r="A4" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B4" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
@@ -604,29 +604,29 @@
     <row r="5">
       <c r="A5" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B5" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -638,11 +638,11 @@
     <row r="6">
       <c r="A6" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B6" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>49</v>
@@ -654,13 +654,13 @@
         <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>26</v>
@@ -675,20 +675,20 @@
     <row r="7">
       <c r="A7" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B7" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>23</v>
@@ -697,7 +697,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>26</v>
@@ -712,29 +712,29 @@
     <row r="8">
       <c r="A8" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B8" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>26</v>
@@ -749,29 +749,29 @@
     <row r="9">
       <c r="A9" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B9" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>26</v>
@@ -786,32 +786,32 @@
     <row r="10">
       <c r="A10" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B10" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -824,14 +824,14 @@
     <row r="11">
       <c r="A11" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B11" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>21</v>
@@ -840,16 +840,16 @@
         <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -862,32 +862,32 @@
     <row r="12">
       <c r="A12" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B12" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -900,11 +900,11 @@
     <row r="13">
       <c r="A13" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B13" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>61</v>
@@ -916,7 +916,7 @@
         <v>62</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>24</v>
@@ -925,7 +925,7 @@
         <v>66</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -941,11 +941,11 @@
     <row r="14">
       <c r="A14" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B14" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
@@ -954,16 +954,16 @@
         <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>67</v>
@@ -982,29 +982,29 @@
     <row r="15">
       <c r="A15" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B15" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>67</v>
@@ -1022,11 +1022,11 @@
     <row r="16">
       <c r="A16" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B16" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>68</v>
@@ -1038,13 +1038,13 @@
         <v>69</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>67</v>
@@ -1062,32 +1062,32 @@
     <row r="17">
       <c r="A17" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B17" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="N17" s="2">
         <v>400.0</v>
@@ -1096,14 +1096,14 @@
     <row r="18">
       <c r="A18" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B18" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>21</v>
@@ -1112,16 +1112,16 @@
         <v>58</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1132,32 +1132,32 @@
     <row r="19">
       <c r="A19" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B19" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1168,11 +1168,11 @@
     <row r="20">
       <c r="A20" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B20" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>61</v>
@@ -1184,7 +1184,7 @@
         <v>62</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>24</v>
@@ -1193,7 +1193,7 @@
         <v>66</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -1207,11 +1207,11 @@
     <row r="21">
       <c r="A21" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B21" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>49</v>
@@ -1223,16 +1223,16 @@
         <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1245,11 +1245,11 @@
     <row r="22">
       <c r="A22" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B22" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>28</v>
@@ -1258,16 +1258,16 @@
         <v>21</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>26</v>
@@ -1280,29 +1280,29 @@
     <row r="23">
       <c r="A23" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B23" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>26</v>
@@ -1314,29 +1314,29 @@
     <row r="24">
       <c r="A24" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B24" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>26</v>
@@ -1348,29 +1348,29 @@
     <row r="25">
       <c r="A25" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B25" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>26</v>
@@ -1382,11 +1382,11 @@
     <row r="26">
       <c r="A26" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B26" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>49</v>
@@ -1398,13 +1398,13 @@
         <v>49</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>26</v>
@@ -1419,29 +1419,29 @@
     <row r="27">
       <c r="A27" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B27" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>26</v>
@@ -1456,29 +1456,29 @@
     <row r="28">
       <c r="A28" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B28" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>26</v>
@@ -1493,29 +1493,29 @@
     <row r="29">
       <c r="A29" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B29" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>26</v>
@@ -1530,32 +1530,32 @@
     <row r="30">
       <c r="A30" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B30" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -1568,14 +1568,14 @@
     <row r="31">
       <c r="A31" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B31" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>21</v>
@@ -1584,16 +1584,16 @@
         <v>58</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1606,32 +1606,32 @@
     <row r="32">
       <c r="A32" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B32" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -1644,11 +1644,11 @@
     <row r="33">
       <c r="A33" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B33" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>28</v>
@@ -1657,16 +1657,16 @@
         <v>21</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>67</v>
@@ -1685,29 +1685,29 @@
     <row r="34">
       <c r="A34" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B34" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>67</v>
@@ -1725,11 +1725,11 @@
     <row r="35">
       <c r="A35" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B35" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>68</v>
@@ -1741,13 +1741,13 @@
         <v>69</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>67</v>
@@ -1765,32 +1765,32 @@
     <row r="36">
       <c r="A36" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B36" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="N36" s="2">
         <v>575.0</v>
@@ -1799,14 +1799,14 @@
     <row r="37">
       <c r="A37" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B37" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>21</v>
@@ -1815,16 +1815,16 @@
         <v>58</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1835,32 +1835,32 @@
     <row r="38">
       <c r="A38" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B38" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -1871,11 +1871,11 @@
     <row r="39">
       <c r="A39" s="8">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B39" s="8">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>49</v>
@@ -1887,16 +1887,16 @@
         <v>49</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -1955,10 +1955,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1983,28 +1983,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>17</v>
@@ -2017,13 +2017,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <f t="shared" ref="A2:A33" si="1">TODAY()</f>
-        <v>43231</v>
-      </c>
-      <c r="B2" s="6">
+        <v>43235</v>
+      </c>
+      <c r="B2" s="7">
         <f t="shared" ref="B2:B33" si="2">A2+365</f>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2051,13 +2051,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B3" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A3" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B3" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2069,7 +2069,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -2085,13 +2085,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B4" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A4" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B4" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2103,7 +2103,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>24</v>
@@ -2119,25 +2119,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B5" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A5" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B5" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>24</v>
@@ -2146,32 +2146,32 @@
         <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O5" s="2">
         <v>150.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B6" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A6" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B6" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>24</v>
@@ -2180,20 +2180,20 @@
         <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P6" s="2">
         <v>650.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B7" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A7" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B7" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
@@ -2202,7 +2202,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>23</v>
@@ -2221,13 +2221,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B8" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A8" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B8" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
@@ -2236,10 +2236,10 @@
         <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>24</v>
@@ -2255,13 +2255,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B9" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A9" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
@@ -2270,10 +2270,10 @@
         <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>24</v>
@@ -2289,22 +2289,22 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B10" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A10" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B10" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>23</v>
@@ -2323,25 +2323,25 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B11" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A11" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>24</v>
@@ -2357,25 +2357,25 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B12" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A12" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>24</v>
@@ -2391,16 +2391,16 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B13" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A13" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>21</v>
@@ -2409,7 +2409,7 @@
         <v>58</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>24</v>
@@ -2418,20 +2418,20 @@
         <v>25</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="2">
         <v>300.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B14" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A14" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B14" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>59</v>
@@ -2443,7 +2443,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>24</v>
@@ -2452,20 +2452,20 @@
         <v>25</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P14" s="2">
         <v>220.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B15" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A15" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B15" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>61</v>
@@ -2477,7 +2477,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>24</v>
@@ -2493,13 +2493,13 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B16" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A16" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B16" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>63</v>
@@ -2511,7 +2511,7 @@
         <v>64</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>24</v>
@@ -2527,25 +2527,25 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B17" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A17" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B17" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>24</v>
@@ -2554,23 +2554,23 @@
         <v>25</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O17" s="2">
         <v>150.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B18" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A18" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B18" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>21</v>
@@ -2579,7 +2579,7 @@
         <v>58</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>24</v>
@@ -2588,20 +2588,20 @@
         <v>25</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O18" s="2">
         <v>300.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B19" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A19" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B19" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>59</v>
@@ -2613,7 +2613,7 @@
         <v>60</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>24</v>
@@ -2622,32 +2622,32 @@
         <v>25</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P19" s="2">
         <v>170.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B20" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A20" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B20" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>24</v>
@@ -2656,20 +2656,20 @@
         <v>25</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P20" s="2">
         <v>200.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B21" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A21" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B21" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>61</v>
@@ -2681,7 +2681,7 @@
         <v>62</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>24</v>
@@ -2690,7 +2690,7 @@
         <v>25</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P21" s="2">
         <v>100.0</v>
@@ -2700,32 +2700,32 @@
     <row r="22">
       <c r="A22" s="13">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B22" s="13">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>66</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
@@ -2738,11 +2738,11 @@
     <row r="23">
       <c r="A23" s="13">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B23" s="13">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>70</v>
@@ -2751,19 +2751,19 @@
         <v>21</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>66</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
@@ -2777,11 +2777,11 @@
     <row r="24">
       <c r="A24" s="13">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B24" s="13">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>71</v>
@@ -2793,10 +2793,10 @@
         <v>58</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>66</v>
@@ -2818,11 +2818,11 @@
     <row r="25">
       <c r="A25" s="13">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B25" s="13">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>28</v>
@@ -2831,13 +2831,13 @@
         <v>21</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>66</v>
@@ -2859,32 +2859,32 @@
     <row r="26">
       <c r="A26" s="13">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B26" s="13">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>66</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
@@ -2897,11 +2897,11 @@
     <row r="27">
       <c r="A27" s="13">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B27" s="13">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>70</v>
@@ -2910,19 +2910,19 @@
         <v>21</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>66</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -2936,11 +2936,11 @@
     <row r="28">
       <c r="A28" s="13">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B28" s="13">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>73</v>
@@ -2955,7 +2955,7 @@
         <v>23</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>66</v>
@@ -2976,11 +2976,11 @@
     <row r="29">
       <c r="A29" s="13">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B29" s="13">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>73</v>
@@ -2992,10 +2992,10 @@
         <v>74</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>66</v>
@@ -3017,11 +3017,11 @@
     <row r="30">
       <c r="A30" s="13">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B30" s="13">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>28</v>
@@ -3030,13 +3030,13 @@
         <v>21</v>
       </c>
       <c r="E30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>27</v>
-      </c>
       <c r="G30" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>25</v>
@@ -3077,11 +3077,11 @@
     <row r="31">
       <c r="A31" s="13">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B31" s="13">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>28</v>
@@ -3090,13 +3090,13 @@
         <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H31" s="17" t="s">
         <v>25</v>
@@ -3118,26 +3118,26 @@
     <row r="32">
       <c r="A32" s="13">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B32" s="13">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>25</v>
@@ -3178,26 +3178,26 @@
     <row r="33">
       <c r="A33" s="13">
         <f t="shared" si="1"/>
-        <v>43231</v>
+        <v>43235</v>
       </c>
       <c r="B33" s="13">
         <f t="shared" si="2"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H33" s="17" t="s">
         <v>25</v>
@@ -3218,28 +3218,28 @@
       <c r="R33" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3257,10 +3257,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -3285,30 +3285,30 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
@@ -3319,238 +3319,238 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <f t="shared" ref="A2:A19" si="1">TODAY()</f>
-        <v>43231</v>
-      </c>
-      <c r="B2" s="6">
+        <v>43235</v>
+      </c>
+      <c r="B2" s="7">
         <f t="shared" ref="B2:B19" si="2">A2+365</f>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="N2" s="2">
         <v>350.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B3" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A3" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B3" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="N3" s="2">
         <v>310.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B4" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A4" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B4" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="N4" s="2">
         <v>425.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B5" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A5" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B5" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="N5" s="2">
         <v>450.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B6" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A6" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B6" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="N6" s="2">
         <v>575.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B7" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A7" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B7" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="N7" s="2">
         <v>500.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B8" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A8" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B8" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L8" s="2">
         <v>5.0</v>
@@ -3567,34 +3567,34 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B9" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A9" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L9" s="2">
         <v>3.5</v>
@@ -3607,34 +3607,34 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B10" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A10" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B10" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L10" s="2">
         <v>2.3</v>
@@ -3647,34 +3647,34 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B11" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A11" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L11" s="2">
         <v>1.6</v>
@@ -3687,34 +3687,34 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B12" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A12" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L12" s="2">
         <v>1.3</v>
@@ -3727,34 +3727,34 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B13" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A13" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L13" s="2">
         <v>1.1</v>
@@ -3767,34 +3767,34 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B14" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A14" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B14" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L14" s="2">
         <v>5.5</v>
@@ -3811,34 +3811,34 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B15" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A15" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B15" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L15" s="2">
         <v>4.5</v>
@@ -3851,34 +3851,34 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B16" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A16" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B16" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L16" s="2">
         <v>3.0</v>
@@ -3891,34 +3891,34 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B17" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A17" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B17" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L17" s="2">
         <v>2.7</v>
@@ -3931,34 +3931,34 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B18" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A18" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B18" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L18" s="2">
         <v>2.5</v>
@@ -3971,34 +3971,34 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B19" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A19" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B19" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L19" s="2">
         <v>2.3</v>
@@ -4011,88 +4011,88 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="21">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
     </row>
     <row r="29">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
     </row>
     <row r="31">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="32">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4113,10 +4113,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -4141,30 +4141,30 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
@@ -4175,25 +4175,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <f t="shared" ref="A2:A9" si="1">TODAY()</f>
-        <v>43231</v>
-      </c>
-      <c r="B2" s="6">
+        <v>43235</v>
+      </c>
+      <c r="B2" s="7">
         <f t="shared" ref="B2:B9" si="2">A2+365</f>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>24</v>
@@ -4202,7 +4202,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L2" s="2">
         <v>0.15</v>
@@ -4212,25 +4212,25 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B3" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A3" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B3" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -4239,32 +4239,32 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2">
         <v>70.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B4" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A4" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B4" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>24</v>
@@ -4273,32 +4273,32 @@
         <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" s="2">
         <v>150.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B5" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A5" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B5" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>24</v>
@@ -4307,41 +4307,41 @@
         <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N5" s="2">
         <v>150.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B6" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A6" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B6" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L6" s="2">
         <v>0.15</v>
@@ -4351,234 +4351,234 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B7" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A7" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B7" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N7" s="2">
         <v>70.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B8" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A8" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B8" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>66</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N8" s="2">
         <v>150.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B9" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A9" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N9" s="2">
         <v>150.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="21">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
     </row>
     <row r="29">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
     </row>
     <row r="31">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="32">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4599,10 +4599,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -4627,28 +4627,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="R1" s="21" t="s">
         <v>17</v>
@@ -4661,204 +4661,204 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <f t="shared" ref="A2:A19" si="1">TODAY()</f>
-        <v>43231</v>
-      </c>
-      <c r="B2" s="6">
+        <v>43235</v>
+      </c>
+      <c r="B2" s="7">
         <f t="shared" ref="B2:B19" si="2">A2+365</f>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="N2" s="2">
         <v>350.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B3" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A3" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B3" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="N3" s="2">
         <v>310.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B4" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A4" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B4" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="N4" s="2">
         <v>425.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B5" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A5" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B5" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="N5" s="2">
         <v>450.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B6" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A6" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B6" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="N6" s="2">
         <v>575.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B7" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A7" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B7" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="N7" s="2">
         <v>500.0</v>
@@ -4871,34 +4871,34 @@
       <c r="Z7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B8" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A8" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B8" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L8" s="2">
         <v>5.0</v>
@@ -4921,34 +4921,34 @@
       <c r="Z8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B9" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A9" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L9" s="2">
         <v>3.5</v>
@@ -4967,34 +4967,34 @@
       <c r="Z9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B10" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A10" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B10" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L10" s="2">
         <v>2.3</v>
@@ -5013,34 +5013,34 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11">
-      <c r="A11" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B11" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A11" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L11" s="2">
         <v>1.6</v>
@@ -5059,34 +5059,34 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B12" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A12" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L12" s="2">
         <v>1.3</v>
@@ -5105,34 +5105,34 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B13" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A13" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L13" s="2">
         <v>1.1</v>
@@ -5151,34 +5151,34 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14">
-      <c r="A14" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B14" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A14" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B14" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L14" s="2">
         <v>5.5</v>
@@ -5201,34 +5201,34 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B15" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A15" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B15" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L15" s="2">
         <v>4.5</v>
@@ -5247,34 +5247,34 @@
       <c r="Z15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B16" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A16" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B16" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L16" s="2">
         <v>3.0</v>
@@ -5293,34 +5293,34 @@
       <c r="Z16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B17" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A17" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B17" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L17" s="2">
         <v>2.7</v>
@@ -5339,34 +5339,34 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B18" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A18" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B18" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L18" s="2">
         <v>2.5</v>
@@ -5385,34 +5385,34 @@
       <c r="Z18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B19" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A19" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B19" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L19" s="2">
         <v>2.3</v>
@@ -5425,92 +5425,92 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="21">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
     </row>
     <row r="29">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
     </row>
     <row r="31">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="32">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5531,10 +5531,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -5559,30 +5559,30 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
@@ -5593,34 +5593,34 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <f t="shared" ref="A2:A19" si="1">TODAY()</f>
-        <v>43231</v>
-      </c>
-      <c r="B2" s="6">
+        <v>43235</v>
+      </c>
+      <c r="B2" s="7">
         <f t="shared" ref="B2:B19" si="2">A2+365</f>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
@@ -5637,34 +5637,34 @@
       <c r="T2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B3" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A3" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B3" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -5681,34 +5681,34 @@
       <c r="T3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B4" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A4" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B4" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -5725,34 +5725,34 @@
       <c r="T4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B5" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A5" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B5" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -5769,34 +5769,34 @@
       <c r="T5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B6" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A6" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B6" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -5813,34 +5813,34 @@
       <c r="T6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B7" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A7" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B7" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -5857,34 +5857,34 @@
       <c r="T7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B8" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A8" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B8" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -5907,34 +5907,34 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B9" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A9" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -5955,34 +5955,34 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B10" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A10" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B10" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -6003,34 +6003,34 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B11" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A11" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -6051,34 +6051,34 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B12" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A12" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -6099,34 +6099,34 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B13" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A13" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -6147,34 +6147,34 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B14" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A14" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B14" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -6197,34 +6197,34 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B15" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A15" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B15" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -6245,34 +6245,34 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B16" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A16" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B16" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -6293,34 +6293,34 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B17" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A17" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B17" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -6341,34 +6341,34 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B18" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A18" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B18" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -6389,34 +6389,34 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6">
-        <f t="shared" si="1"/>
-        <v>43231</v>
-      </c>
-      <c r="B19" s="6">
-        <f t="shared" si="2"/>
-        <v>43596</v>
+      <c r="A19" s="7">
+        <f t="shared" si="1"/>
+        <v>43235</v>
+      </c>
+      <c r="B19" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -6437,92 +6437,92 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="21">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
     </row>
     <row r="29">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
     </row>
     <row r="31">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="32">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
